--- a/dtpu_configurations/only_integer16/80mhz/mxu_3x3/power.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_3x3/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.024895381182432175</v>
+        <v>0.03096638061106205</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.014355340041220188</v>
+        <v>0.012773372232913971</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.010052631609141827</v>
+        <v>0.01003422960639</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.005051291547715664</v>
+        <v>0.005914391949772835</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>4.608827566698892E-6</v>
+        <v>7.880567864049226E-6</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0016463621286675334</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1253976672887802</v>
+        <v>0.1264667510986328</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4433542490005493</v>
+        <v>1.4497603178024292</v>
       </c>
     </row>
   </sheetData>
